--- a/processed_data/PDBbind v2020(samples_deleted_phase2).xlsx
+++ b/processed_data/PDBbind v2020(samples_deleted_phase2).xlsx
@@ -768,7 +768,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="1">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
